--- a/data/trans_camb/P10_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Urba-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-0,04</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,55</t>
+          <t>-2,03; 3,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,6</t>
+          <t>-3,22; 1,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,76</t>
+          <t>-1,83; 2,07</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-11,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>-0,7%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,72; 117,6</t>
+          <t>-38,88; 127,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 32,81</t>
+          <t>-43,25; 39,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,79; 39,73</t>
+          <t>-31,54; 48,01</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>-1,93</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,93</t>
+          <t>-4,57; 3,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 1,75</t>
+          <t>-5,93; 0,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 1,19</t>
+          <t>-4,44; 0,94</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-20,2%</t>
+          <t>-19,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,57%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>-23,24%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-59,23; 57,77</t>
+          <t>-54,11; 69,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-49,82; 22,0</t>
+          <t>-50,75; 9,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-45,12; 16,71</t>
+          <t>-46,35; 14,3</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-1,94</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 12,74</t>
+          <t>-9,4; 6,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 7,68</t>
+          <t>-9,76; 5,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 6,68</t>
+          <t>-7,41; 3,56</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>-17,33%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>-15,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-16,5%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,26; 211,46</t>
+          <t>-68,29; 102,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,61; 79,39</t>
+          <t>-57,51; 56,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 69,27</t>
+          <t>-51,06; 39,57</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,02</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 2,61</t>
+          <t>-2,5; 1,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,91</t>
+          <t>-3,53; 0,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 0,94</t>
+          <t>-2,51; 0,66</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>-6,86%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,08%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-14,12%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,24 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-34,16; 48,73</t>
+          <t>-37,33; 36,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 11,37</t>
+          <t>-38,35; 7,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 14,18</t>
+          <t>-32,56; 9,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P10_3-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P10_3-Urba-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.5723237430832119</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.8304886237248024</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.1595708053488826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,03; 3,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,22; 1,86</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 2,07</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.144799387173197</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.394040220427588</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.929015067633673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>16,81%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-11,53%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,7%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.887144296813469</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.747797161267777</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.932037345578044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-38,88; 127,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-43,25; 39,4</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-31,54; 48,01</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1377937215093205</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.1349633036120788</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.03070167708703189</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.4082518153348902</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4519067294630543</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3320326558982047</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,57; 3,24</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-5,93; 0,76</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 0,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1.244132582006561</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.3563615788100072</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.4327913090231206</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-19,31%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-25,89%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-23,24%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.178585577624486</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.127862727580966</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.65915002399625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-54,11; 69,73</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-50,75; 9,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-46,35; 14,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.470545284643364</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.534540784877763</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.29837484710541</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,69</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.12143231067441</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.451374874399994</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.202219834288194</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,4; 6,01</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,76; 5,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,41; 3,56</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1733868211540948</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.2173130263859612</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.1997300625114192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-17,33%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,91%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-16,5%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.543042719049986</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.4910820205410408</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.4472350295524374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-68,29; 102,69</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-57,51; 56,73</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-51,06; 39,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.6622917152579056</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1698946106705728</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1952665359181244</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,93 +775,209 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,4</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-1,6</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>1.186065995173923</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.666337780320148</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-0.2214793833482165</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 1,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,53; 0,53</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,51; 0,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.042757754589204</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.110895014764408</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-5.751006976150491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-6,86%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-18,95%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-14,12%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>13.73092327611536</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.809286646878279</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>6.660502026859709</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-37,33; 36,9</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-38,35; 7,65</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-32,56; 9,72</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>0.1217664899980297</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1203126672242619</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.01881983920631829</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6225920880484891</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.546095252268186</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.4316776784479804</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2.085160184844168</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.6811298803249973</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.7294062343082033</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.05938050813328669</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.443463214743347</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.7674152222228503</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-2.286712050821941</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-3.448508499284412</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-2.265682284385365</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2.348426048012685</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>0.6494783425921655</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>0.9109581810177816</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.01006257138724212</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1708093723855818</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.1065057527008215</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3499004724896289</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.3750490959296569</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.2997601502389764</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.4639201147099252</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.0775808201663625</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.1367652080682377</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -936,11 +985,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
